--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,763 +572,35 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>11.02.2023</v>
+        <v>25.03.2023</v>
       </c>
       <c r="B11" t="str">
-        <v>12:30</v>
+        <v>12:12</v>
       </c>
       <c r="C11" t="str">
-        <v>13:00</v>
+        <v>12:33</v>
       </c>
       <c r="D11" t="str">
-        <v>00:30</v>
+        <v>00:21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>11.02.2023</v>
+        <v>25.03.2023</v>
       </c>
       <c r="B12" t="str">
-        <v>12:30</v>
+        <v>13:17</v>
       </c>
       <c r="C12" t="str">
-        <v>13:00</v>
+        <v>15:45</v>
       </c>
       <c r="D12" t="str">
-        <v>00:30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>11.02.2023</v>
-      </c>
-      <c r="B13" t="str">
-        <v>12:30</v>
-      </c>
-      <c r="C13" t="str">
-        <v>13:00</v>
-      </c>
-      <c r="D13" t="str">
-        <v>00:30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>11.02.2023</v>
-      </c>
-      <c r="B14" t="str">
-        <v>12:30</v>
-      </c>
-      <c r="C14" t="str">
-        <v>13:00</v>
-      </c>
-      <c r="D14" t="str">
-        <v>00:30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>11.02.2023</v>
-      </c>
-      <c r="B15" t="str">
-        <v>12:30</v>
-      </c>
-      <c r="C15" t="str">
-        <v>13:00</v>
-      </c>
-      <c r="D15" t="str">
-        <v>00:30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B16" t="str">
-        <v>12:12</v>
-      </c>
-      <c r="C16" t="str">
-        <v>12:33</v>
-      </c>
-      <c r="D16" t="str">
-        <v>00:21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B17" t="str">
-        <v>12:12</v>
-      </c>
-      <c r="C17" t="str">
-        <v>12:47</v>
-      </c>
-      <c r="D17" t="str">
-        <v>00:35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B18" t="str">
-        <v>12:12</v>
-      </c>
-      <c r="C18" t="str">
-        <v>12:47</v>
-      </c>
-      <c r="D18" t="str">
-        <v>00:35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B19" t="str">
-        <v>12:12</v>
-      </c>
-      <c r="C19" t="str">
-        <v>13:00</v>
-      </c>
-      <c r="D19" t="str">
-        <v>00:48</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B20" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C20" t="str">
-        <v>15:45</v>
-      </c>
-      <c r="D20" t="str">
         <v>02:28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B21" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C21" t="str">
-        <v>15:45</v>
-      </c>
-      <c r="D21" t="str">
-        <v>02:28</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B22" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C22" t="str">
-        <v>15:46</v>
-      </c>
-      <c r="D22" t="str">
-        <v>02:29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B23" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C23" t="str">
-        <v>15:46</v>
-      </c>
-      <c r="D23" t="str">
-        <v>02:29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C24" t="str">
-        <v>15:46</v>
-      </c>
-      <c r="D24" t="str">
-        <v>02:29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B25" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C25" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D25" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B26" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C26" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D26" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B27" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C27" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D27" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B28" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C28" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D28" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B29" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C29" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D29" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B30" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C30" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D30" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B31" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C31" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D31" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B32" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C32" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D32" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B33" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C33" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D33" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B34" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C34" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D34" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B35" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C35" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D35" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B36" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C36" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D36" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B37" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C37" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D37" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B38" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C38" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D38" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B39" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C39" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D39" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B40" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C40" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D40" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B41" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C41" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D41" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B42" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C42" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D42" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B43" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C43" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D43" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B44" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C44" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D44" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B45" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C45" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D45" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B46" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C46" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D46" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B47" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C47" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D47" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B48" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C48" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D48" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B49" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C49" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D49" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B50" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C50" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D50" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B51" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C51" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D51" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B52" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C52" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D52" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B53" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C53" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D53" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B54" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C54" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D54" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B55" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C55" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D55" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B56" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C56" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D56" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B57" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C57" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D57" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B58" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C58" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D58" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B59" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C59" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D59" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B60" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C60" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D60" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B61" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C61" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D61" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B62" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C62" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D62" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B63" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C63" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D63" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B64" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C64" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D64" t="str">
-        <v>10:42</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3659,7 +2931,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3680,1967 +2952,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20.03.2023</v>
+        <v>27.03.2023</v>
       </c>
       <c r="B2" t="str">
-        <v>20:31</v>
+        <v>19:13</v>
       </c>
       <c r="C2" t="str">
-        <v>23:59</v>
+        <v>10:37</v>
       </c>
       <c r="D2" t="str">
-        <v>03:28</v>
+        <v>-9:-36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20.03.2023</v>
+        <v>28.03.2023</v>
       </c>
       <c r="B3" t="str">
-        <v>20:31</v>
+        <v>18:17</v>
       </c>
       <c r="C3" t="str">
-        <v>23:59</v>
+        <v>13:58</v>
       </c>
       <c r="D3" t="str">
-        <v>03:28</v>
+        <v>-5:-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20.03.2023</v>
+        <v>29.03.2023</v>
       </c>
       <c r="B4" t="str">
-        <v>20:31</v>
+        <v>15:24</v>
       </c>
       <c r="C4" t="str">
-        <v>23:59</v>
+        <v>09:50</v>
       </c>
       <c r="D4" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B5" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C5" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D5" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B6" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C6" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D6" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B7" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C7" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D7" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B8" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C8" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D8" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B9" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C9" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D9" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B10" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C10" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D10" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B11" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C11" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D11" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B12" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C12" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D12" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B13" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C13" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D13" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B14" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C14" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D14" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B15" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C15" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D15" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B16" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C16" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D16" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B17" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C17" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D17" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B18" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C18" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D18" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B19" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C19" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D19" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B20" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C20" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D20" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B21" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C21" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D21" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B22" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C22" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D22" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B23" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C23" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D23" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C24" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D24" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B25" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C25" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D25" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B26" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C26" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D26" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B27" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C27" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D27" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B28" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C28" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D28" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B29" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C29" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D29" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B30" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C30" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D30" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B31" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C31" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D31" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B32" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C32" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D32" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B33" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C33" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D33" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B34" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C34" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D34" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B35" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C35" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D35" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B36" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C36" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D36" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B37" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C37" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D37" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B38" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C38" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D38" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B39" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C39" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D39" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B40" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C40" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D40" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B41" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C41" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D41" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B42" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C42" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D42" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B43" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C43" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D43" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B44" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C44" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D44" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B45" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C45" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D45" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B46" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C46" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D46" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B47" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C47" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D47" t="str">
-        <v>-21:-31</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B48" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C48" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D48" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B49" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C49" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D49" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B50" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C50" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D50" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B51" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C51" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D51" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B52" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C52" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D52" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B53" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C53" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D53" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B54" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C54" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D54" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B55" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C55" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D55" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B56" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C56" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D56" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B57" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C57" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D57" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B58" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C58" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D58" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B59" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C59" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D59" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B60" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C60" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D60" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B61" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C61" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D61" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B62" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C62" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D62" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B63" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C63" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D63" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B64" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C64" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D64" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B65" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C65" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D65" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B66" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C66" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D66" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B67" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C67" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D67" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B68" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C68" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D68" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B69" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C69" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D69" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B70" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C70" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D70" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B71" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C71" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D71" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B72" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C72" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D72" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B73" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C73" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D73" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B74" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C74" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D74" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B75" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C75" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D75" t="str">
-        <v>-21:-31</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B76" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C76" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D76" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B77" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C77" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D77" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B78" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C78" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D78" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B79" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C79" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D79" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B80" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C80" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D80" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B81" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C81" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D81" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B82" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C82" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D82" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B83" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C83" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D83" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B84" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C84" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D84" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B85" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C85" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D85" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B86" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C86" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D86" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B87" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C87" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D87" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B88" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C88" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D88" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B89" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C89" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D89" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B90" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C90" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D90" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B91" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C91" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D91" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B92" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C92" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D92" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B93" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C93" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D93" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B94" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C94" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D94" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B95" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C95" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D95" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B96" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C96" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D96" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B97" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C97" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D97" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B98" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C98" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D98" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B99" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C99" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D99" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B100" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C100" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D100" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B101" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C101" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D101" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B102" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C102" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D102" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B103" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C103" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D103" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B104" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C104" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D104" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B105" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C105" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D105" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B106" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C106" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D106" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B107" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C107" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D107" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B108" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C108" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D108" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B109" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C109" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D109" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B110" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C110" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D110" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B111" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C111" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D111" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B112" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C112" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D112" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B113" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C113" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D113" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B114" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C114" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D114" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B115" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C115" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D115" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B116" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C116" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D116" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B117" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C117" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D117" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B118" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C118" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D118" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B119" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C119" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D119" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B120" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C120" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D120" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B121" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C121" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D121" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B122" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C122" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D122" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B123" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C123" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D123" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B124" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C124" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D124" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B125" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C125" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D125" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B126" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C126" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D126" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B127" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C127" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D127" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B128" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C128" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D128" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B129" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C129" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D129" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B130" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C130" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D130" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B131" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C131" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D131" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B132" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C132" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D132" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B133" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C133" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D133" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B134" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C134" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D134" t="str">
-        <v>03:28</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>20.03.2023</v>
-      </c>
-      <c r="B135" t="str">
-        <v>20:31</v>
-      </c>
-      <c r="C135" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D135" t="str">
-        <v>-21:-31</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B136" t="str">
-        <v>19:13</v>
-      </c>
-      <c r="C136" t="str">
-        <v>10:37</v>
-      </c>
-      <c r="D136" t="str">
-        <v>-9:-36</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B137" t="str">
-        <v>19:13</v>
-      </c>
-      <c r="C137" t="str">
-        <v>10:38</v>
-      </c>
-      <c r="D137" t="str">
-        <v>-9:-35</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B138" t="str">
-        <v>19:13</v>
-      </c>
-      <c r="C138" t="str">
-        <v>10:38</v>
-      </c>
-      <c r="D138" t="str">
-        <v>-9:-35</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B139" t="str">
-        <v>19:13</v>
-      </c>
-      <c r="C139" t="str">
-        <v>10:38</v>
-      </c>
-      <c r="D139" t="str">
-        <v>-9:-35</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>28.03.2023</v>
-      </c>
-      <c r="B140" t="str">
-        <v>18:17</v>
-      </c>
-      <c r="C140" t="str">
-        <v>13:58</v>
-      </c>
-      <c r="D140" t="str">
-        <v>-5:-19</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>29.03.2023</v>
-      </c>
-      <c r="B141" t="str">
-        <v>15:24</v>
-      </c>
-      <c r="C141" t="str">
-        <v>09:50</v>
-      </c>
-      <c r="D141" t="str">
         <v>-6:-34</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8881,7 +6235,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8905,928 +6259,116 @@
         <v>25.03.2023</v>
       </c>
       <c r="B2" t="str">
-        <v>11:45</v>
+        <v>13:17</v>
       </c>
       <c r="C2" t="str">
-        <v>12:48</v>
+        <v>23:59</v>
       </c>
       <c r="D2" t="str">
-        <v>01:03</v>
+        <v>10:42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>25.03.2023</v>
+        <v>26.03.2023</v>
       </c>
       <c r="B3" t="str">
-        <v>13:17</v>
+        <v>16:18</v>
       </c>
       <c r="C3" t="str">
-        <v>23:59</v>
+        <v>16:19</v>
       </c>
       <c r="D3" t="str">
-        <v>10:42</v>
+        <v>00:01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>25.03.2023</v>
+        <v>26.03.2023</v>
       </c>
       <c r="B4" t="str">
-        <v>13:17</v>
+        <v>16:23</v>
       </c>
       <c r="C4" t="str">
-        <v>23:59</v>
+        <v>16:24</v>
       </c>
       <c r="D4" t="str">
-        <v>10:42</v>
+        <v>00:01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>25.03.2023</v>
+        <v>26.03.2023</v>
       </c>
       <c r="B5" t="str">
-        <v>13:17</v>
+        <v>16:29</v>
       </c>
       <c r="C5" t="str">
-        <v>23:59</v>
+        <v>16:32</v>
       </c>
       <c r="D5" t="str">
-        <v>10:42</v>
+        <v>00:03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>25.03.2023</v>
+        <v>26.03.2023</v>
       </c>
       <c r="B6" t="str">
-        <v>13:17</v>
+        <v>17:11</v>
       </c>
       <c r="C6" t="str">
-        <v>23:59</v>
+        <v>13:40</v>
       </c>
       <c r="D6" t="str">
-        <v>10:42</v>
+        <v>-4:-31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>25.03.2023</v>
+        <v>27.03.2023</v>
       </c>
       <c r="B7" t="str">
-        <v>13:17</v>
+        <v>15:37</v>
       </c>
       <c r="C7" t="str">
-        <v>23:59</v>
+        <v>15:39</v>
       </c>
       <c r="D7" t="str">
-        <v>10:42</v>
+        <v>00:02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>25.03.2023</v>
+        <v>28.03.2023</v>
       </c>
       <c r="B8" t="str">
+        <v>13:06</v>
+      </c>
+      <c r="C8" t="str">
         <v>13:17</v>
       </c>
-      <c r="C8" t="str">
-        <v>23:59</v>
-      </c>
       <c r="D8" t="str">
-        <v>10:42</v>
+        <v>00:11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>25.03.2023</v>
+        <v>02.04.2023</v>
       </c>
       <c r="B9" t="str">
-        <v>13:17</v>
+        <v>14:34</v>
       </c>
       <c r="C9" t="str">
-        <v>23:59</v>
+        <v>14:23</v>
       </c>
       <c r="D9" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B10" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C10" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D10" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B11" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C11" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D11" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B12" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C12" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D12" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B13" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C13" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D13" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B14" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C14" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D14" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B15" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C15" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D15" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B16" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C16" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D16" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B17" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C17" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D17" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B18" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C18" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D18" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B19" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C19" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D19" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B20" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C20" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D20" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B21" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C21" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D21" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B22" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C22" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D22" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B23" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C23" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D23" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C24" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D24" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B25" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C25" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D25" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B26" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C26" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D26" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B27" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C27" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D27" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B28" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C28" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D28" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B29" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C29" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D29" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B30" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C30" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D30" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B31" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C31" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D31" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B32" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C32" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D32" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B33" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C33" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D33" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B34" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C34" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D34" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B35" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C35" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D35" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B36" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C36" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D36" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B37" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C37" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D37" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B38" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C38" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D38" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B39" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C39" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D39" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B40" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C40" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D40" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B41" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C41" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D41" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B42" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C42" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D42" t="str">
-        <v>10:42</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B43" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C43" t="str">
-        <v>14:09</v>
-      </c>
-      <c r="D43" t="str">
-        <v>00:52</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B44" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C44" t="str">
-        <v>14:09</v>
-      </c>
-      <c r="D44" t="str">
-        <v>00:52</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>25.03.2023</v>
-      </c>
-      <c r="B45" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="C45" t="str">
-        <v>14:09</v>
-      </c>
-      <c r="D45" t="str">
-        <v>00:52</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B46" t="str">
-        <v>16:18</v>
-      </c>
-      <c r="C46" t="str">
-        <v>16:19</v>
-      </c>
-      <c r="D46" t="str">
-        <v>00:01</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B47" t="str">
-        <v>16:18</v>
-      </c>
-      <c r="C47" t="str">
-        <v>16:20</v>
-      </c>
-      <c r="D47" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B48" t="str">
-        <v>16:18</v>
-      </c>
-      <c r="C48" t="str">
-        <v>16:20</v>
-      </c>
-      <c r="D48" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B49" t="str">
-        <v>16:23</v>
-      </c>
-      <c r="C49" t="str">
-        <v>16:24</v>
-      </c>
-      <c r="D49" t="str">
-        <v>00:01</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B50" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C50" t="str">
-        <v>16:32</v>
-      </c>
-      <c r="D50" t="str">
-        <v>00:03</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B51" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C51" t="str">
-        <v>16:32</v>
-      </c>
-      <c r="D51" t="str">
-        <v>00:03</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B52" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C52" t="str">
-        <v>16:32</v>
-      </c>
-      <c r="D52" t="str">
-        <v>00:03</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B53" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C53" t="str">
-        <v>16:33</v>
-      </c>
-      <c r="D53" t="str">
-        <v>00:04</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B54" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C54" t="str">
-        <v>16:33</v>
-      </c>
-      <c r="D54" t="str">
-        <v>00:04</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B55" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C55" t="str">
-        <v>16:33</v>
-      </c>
-      <c r="D55" t="str">
-        <v>00:04</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B56" t="str">
-        <v>16:29</v>
-      </c>
-      <c r="C56" t="str">
-        <v>16:33</v>
-      </c>
-      <c r="D56" t="str">
-        <v>00:04</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B57" t="str">
-        <v>17:11</v>
-      </c>
-      <c r="C57" t="str">
-        <v>13:40</v>
-      </c>
-      <c r="D57" t="str">
-        <v>-4:-31</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B58" t="str">
-        <v>17:11</v>
-      </c>
-      <c r="C58" t="str">
-        <v>13:40</v>
-      </c>
-      <c r="D58" t="str">
-        <v>-4:-31</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B59" t="str">
-        <v>17:11</v>
-      </c>
-      <c r="C59" t="str">
-        <v>13:40</v>
-      </c>
-      <c r="D59" t="str">
-        <v>-4:-31</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>26.03.2023</v>
-      </c>
-      <c r="B60" t="str">
-        <v>17:11</v>
-      </c>
-      <c r="C60" t="str">
-        <v>13:40</v>
-      </c>
-      <c r="D60" t="str">
-        <v>-4:-31</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B61" t="str">
-        <v>15:37</v>
-      </c>
-      <c r="C61" t="str">
-        <v>15:39</v>
-      </c>
-      <c r="D61" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B62" t="str">
-        <v>15:37</v>
-      </c>
-      <c r="C62" t="str">
-        <v>15:39</v>
-      </c>
-      <c r="D62" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B63" t="str">
-        <v>15:37</v>
-      </c>
-      <c r="C63" t="str">
-        <v>15:39</v>
-      </c>
-      <c r="D63" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B64" t="str">
-        <v>15:37</v>
-      </c>
-      <c r="C64" t="str">
-        <v>15:39</v>
-      </c>
-      <c r="D64" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B65" t="str">
-        <v>15:37</v>
-      </c>
-      <c r="C65" t="str">
-        <v>15:39</v>
-      </c>
-      <c r="D65" t="str">
-        <v>00:02</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>28.03.2023</v>
-      </c>
-      <c r="B66" t="str">
-        <v>13:06</v>
-      </c>
-      <c r="C66" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="D66" t="str">
-        <v>00:11</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>28.03.2023</v>
-      </c>
-      <c r="B67" t="str">
-        <v>13:06</v>
-      </c>
-      <c r="C67" t="str">
-        <v>13:17</v>
-      </c>
-      <c r="D67" t="str">
-        <v>00:11</v>
+        <v>-1:-11</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -11765,7 +8307,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13786,9 +10328,121 @@
         <v>03:50</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>31.03.2023</v>
+      </c>
+      <c r="B145" t="str">
+        <v>14:38</v>
+      </c>
+      <c r="C145" t="str">
+        <v>09:53</v>
+      </c>
+      <c r="D145" t="str">
+        <v>-5:-45</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>31.03.2023</v>
+      </c>
+      <c r="B146" t="str">
+        <v>14:38</v>
+      </c>
+      <c r="C146" t="str">
+        <v>09:53</v>
+      </c>
+      <c r="D146" t="str">
+        <v>-5:-45</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>31.03.2023</v>
+      </c>
+      <c r="B147" t="str">
+        <v>14:38</v>
+      </c>
+      <c r="C147" t="str">
+        <v>09:53</v>
+      </c>
+      <c r="D147" t="str">
+        <v>-5:-45</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>31.03.2023</v>
+      </c>
+      <c r="B148" t="str">
+        <v>14:38</v>
+      </c>
+      <c r="C148" t="str">
+        <v>09:53</v>
+      </c>
+      <c r="D148" t="str">
+        <v>-5:-45</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>03.04.2023</v>
+      </c>
+      <c r="B149" t="str">
+        <v>10:33</v>
+      </c>
+      <c r="C149" t="str">
+        <v>11:12</v>
+      </c>
+      <c r="D149" t="str">
+        <v>00:39</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>03.04.2023</v>
+      </c>
+      <c r="B150" t="str">
+        <v>10:33</v>
+      </c>
+      <c r="C150" t="str">
+        <v>11:12</v>
+      </c>
+      <c r="D150" t="str">
+        <v>00:39</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>03.04.2023</v>
+      </c>
+      <c r="B151" t="str">
+        <v>10:33</v>
+      </c>
+      <c r="C151" t="str">
+        <v>11:12</v>
+      </c>
+      <c r="D151" t="str">
+        <v>00:39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>03.04.2023</v>
+      </c>
+      <c r="B152" t="str">
+        <v>10:33</v>
+      </c>
+      <c r="C152" t="str">
+        <v>11:12</v>
+      </c>
+      <c r="D152" t="str">
+        <v>00:39</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D152"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14019,7 +10673,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14040,931 +10694,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>22.03.2023</v>
+        <v>27.03.2023</v>
       </c>
       <c r="B2" t="str">
-        <v>13:24</v>
+        <v>10:33</v>
       </c>
       <c r="C2" t="str">
-        <v>23:59</v>
+        <v>13:49</v>
       </c>
       <c r="D2" t="str">
-        <v>10:35</v>
+        <v>03:16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>22.03.2023</v>
+        <v>27.03.2023</v>
       </c>
       <c r="B3" t="str">
-        <v>13:24</v>
+        <v>15:56</v>
       </c>
       <c r="C3" t="str">
-        <v>23:59</v>
+        <v>19:46</v>
       </c>
       <c r="D3" t="str">
-        <v>10:35</v>
+        <v>03:50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>22.03.2023</v>
+        <v>28.03.2023</v>
       </c>
       <c r="B4" t="str">
-        <v>13:24</v>
+        <v>16:37</v>
       </c>
       <c r="C4" t="str">
-        <v>23:59</v>
+        <v>13:58</v>
       </c>
       <c r="D4" t="str">
-        <v>10:35</v>
+        <v>-3:-39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>22.03.2023</v>
+        <v>29.03.2023</v>
       </c>
       <c r="B5" t="str">
-        <v>13:24</v>
+        <v>15:24</v>
       </c>
       <c r="C5" t="str">
-        <v>23:59</v>
+        <v>12:50</v>
       </c>
       <c r="D5" t="str">
-        <v>10:35</v>
+        <v>-3:-34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>22.03.2023</v>
+        <v>04.04.2023</v>
       </c>
       <c r="B6" t="str">
-        <v>13:24</v>
+        <v>14:04</v>
       </c>
       <c r="C6" t="str">
-        <v>23:59</v>
+        <v>14:58</v>
       </c>
       <c r="D6" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B7" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C7" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D7" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B8" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C8" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D8" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B9" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C9" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D9" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B10" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C10" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D10" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B11" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C11" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D11" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B12" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C12" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D12" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B13" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C13" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D13" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B14" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C14" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D14" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B15" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C15" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D15" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B16" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C16" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D16" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B17" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C17" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D17" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B18" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C18" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D18" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B19" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C19" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D19" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B20" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C20" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D20" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B21" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C21" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D21" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B22" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C22" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D22" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B23" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C23" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D23" t="str">
-        <v>-14:-24</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C24" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D24" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B25" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C25" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D25" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B26" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C26" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D26" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B27" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C27" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D27" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B28" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C28" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D28" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B29" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C29" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D29" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B30" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C30" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D30" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B31" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C31" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D31" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B32" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C32" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D32" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B33" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C33" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D33" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B34" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C34" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D34" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B35" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C35" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D35" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B36" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C36" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D36" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B37" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C37" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D37" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B38" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C38" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D38" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B39" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C39" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D39" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B40" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C40" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D40" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B41" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C41" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D41" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B42" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C42" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D42" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B43" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C43" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D43" t="str">
-        <v>-14:-24</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B44" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C44" t="str">
-        <v>17:48</v>
-      </c>
-      <c r="D44" t="str">
-        <v>04:24</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B45" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C45" t="str">
-        <v>17:48</v>
-      </c>
-      <c r="D45" t="str">
-        <v>04:24</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B46" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C46" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D46" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B47" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C47" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D47" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B48" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C48" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D48" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B49" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C49" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D49" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B50" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C50" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D50" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B51" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C51" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D51" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B52" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C52" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D52" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B53" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C53" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D53" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B54" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C54" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D54" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B55" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C55" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D55" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B56" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C56" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D56" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B57" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C57" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D57" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B58" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C58" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D58" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B59" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C59" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D59" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B60" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C60" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D60" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B61" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C61" t="str">
-        <v>23:59</v>
-      </c>
-      <c r="D61" t="str">
-        <v>10:35</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B62" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C62" t="str">
-        <v>00:00</v>
-      </c>
-      <c r="D62" t="str">
-        <v>-14:-24</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B63" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C63" t="str">
-        <v>11:34</v>
-      </c>
-      <c r="D63" t="str">
-        <v>-2:-50</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>22.03.2023</v>
-      </c>
-      <c r="B64" t="str">
-        <v>13:24</v>
-      </c>
-      <c r="C64" t="str">
-        <v>11:47</v>
-      </c>
-      <c r="D64" t="str">
-        <v>-2:-37</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B65" t="str">
-        <v>10:33</v>
-      </c>
-      <c r="C65" t="str">
-        <v>13:49</v>
-      </c>
-      <c r="D65" t="str">
-        <v>03:16</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>27.03.2023</v>
-      </c>
-      <c r="B66" t="str">
-        <v>15:56</v>
-      </c>
-      <c r="C66" t="str">
-        <v>19:46</v>
-      </c>
-      <c r="D66" t="str">
-        <v>03:50</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>28.03.2023</v>
-      </c>
-      <c r="B67" t="str">
-        <v>16:37</v>
-      </c>
-      <c r="C67" t="str">
-        <v>13:58</v>
-      </c>
-      <c r="D67" t="str">
-        <v>-3:-39</v>
+        <v>00:54</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
